--- a/PCB/Project Outputs for SCX10/SCX10.xlsx
+++ b/PCB/Project Outputs for SCX10/SCX10.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\file\handware\scx10\PCB\Project Outputs for SCX10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9136F62A-C0FF-4DA1-A0E6-E5D9FC7E85EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06517E14-1A41-40B5-B0FE-2B17CF6F00B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A3BE830-9859-4497-8BCA-EF18B4851941}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{795F3F1C-9A31-4FE4-B85D-5A63C158868D}"/>
   </bookViews>
   <sheets>
     <sheet name="SCX10" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
   <si>
     <t>Comment</t>
   </si>
@@ -51,46 +46,55 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Motor, General Kind</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
     <t>7.4V</t>
   </si>
   <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>C1, C2, C7, C9, C14, C16, C19, C21, C22, C23, C24, C27</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>4.7uF/16V</t>
+  </si>
+  <si>
+    <t>C3, C4</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C5, C8, C15, C18</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C10, C11, C12, C17, C20</t>
+  </si>
+  <si>
     <t>1nF</t>
   </si>
   <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>C1, C13</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C2, C7, C8, C9, C14, C16, C19, C21, C22, C23, C24, C27</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>C3, C4, C5, C6</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C10, C11, C12, C17, C20</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C15, C18</t>
+    <t>C13</t>
   </si>
   <si>
     <t>30pF</t>
@@ -99,21 +103,6 @@
     <t>C25, C26</t>
   </si>
   <si>
-    <t>SS34</t>
-  </si>
-  <si>
-    <t>1 Amp General Purpose Rectifier</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4</t>
-  </si>
-  <si>
-    <t>SMA</t>
-  </si>
-  <si>
-    <t>Diode 1N4007</t>
-  </si>
-  <si>
     <t>5.5uH</t>
   </si>
   <si>
@@ -135,7 +124,7 @@
     <t>LED1</t>
   </si>
   <si>
-    <t>XH2.5-2P</t>
+    <t>HDR1X2</t>
   </si>
   <si>
     <t>Header 2</t>
@@ -159,28 +148,28 @@
     <t>LED4</t>
   </si>
   <si>
+    <t>Header 3</t>
+  </si>
+  <si>
+    <t>Header, 3-Pin</t>
+  </si>
+  <si>
+    <t>P1, P2</t>
+  </si>
+  <si>
+    <t>HDR1X3</t>
+  </si>
+  <si>
     <t>Header 4</t>
   </si>
   <si>
     <t>Header, 4-Pin</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>XH2.5-4P</t>
-  </si>
-  <si>
-    <t>Header 3</t>
-  </si>
-  <si>
-    <t>Header, 3-Pin</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>HDR1X3</t>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>HDR1X4</t>
   </si>
   <si>
     <t>P5, P6</t>
@@ -192,36 +181,18 @@
     <t>P7</t>
   </si>
   <si>
-    <t>HDR1X4</t>
-  </si>
-  <si>
-    <t>PMOS</t>
+    <t>NPN</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Q1, Q2</t>
-  </si>
-  <si>
-    <t>TO-252</t>
-  </si>
-  <si>
-    <t>NPN</t>
-  </si>
-  <si>
     <t>Q3, Q4, Q5, Q6</t>
   </si>
   <si>
     <t>SOT23-3</t>
   </si>
   <si>
-    <t>NMOS</t>
-  </si>
-  <si>
-    <t>Q7, Q8</t>
-  </si>
-  <si>
     <t>0R</t>
   </si>
   <si>
@@ -237,6 +208,12 @@
     <t>Res2</t>
   </si>
   <si>
+    <t>0R/NC</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
     <t>2K</t>
   </si>
   <si>
@@ -249,16 +226,22 @@
     <t>R7, R8, R9, R10, R11, R12, R35</t>
   </si>
   <si>
-    <t>6.8K</t>
-  </si>
-  <si>
-    <t>R13, R14, R15, R16, R17, R18, R21, R22, R23, R24, R25, R26</t>
-  </si>
-  <si>
-    <t>2.26K</t>
-  </si>
-  <si>
-    <t>R19, R20, R27, R28</t>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>R13, R14, R15, R26</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>R16, R17, R18, R19, R20, R21</t>
+  </si>
+  <si>
+    <t>510R</t>
+  </si>
+  <si>
+    <t>R22, R23, R24, R25</t>
   </si>
   <si>
     <t>20R</t>
@@ -306,28 +289,34 @@
     <t>S1</t>
   </si>
   <si>
-    <t>ACS712</t>
+    <t>SN74LV125A-PW</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
+    <t>TSSOP-14</t>
+  </si>
+  <si>
+    <t>24C02</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
     <t>SOP-8</t>
   </si>
   <si>
-    <t>24C02</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>LM324</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOP-14</t>
+    <t>BTN7971B</t>
+  </si>
+  <si>
+    <t>U3, U8</t>
+  </si>
+  <si>
+    <t>INF-PG-TO263-7-1_L - Cloned</t>
+  </si>
+  <si>
+    <t>INF-BTN79XXX-PG-TO263-7-1-8</t>
   </si>
   <si>
     <t>MP2315</t>
@@ -771,19 +760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CC7D94-CE54-477F-B075-3AE5FD6B6B62}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A9D2E0-C7D7-4BBA-97FB-AAA6ECB8BBF4}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="15.625" customWidth="1"/>
+    <col min="1" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -808,39 +792,39 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
         <v>12</v>
@@ -848,119 +832,119 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -968,19 +952,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -988,19 +972,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1008,19 +992,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1028,19 +1012,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1048,39 +1032,39 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1088,19 +1072,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -1108,19 +1092,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1128,159 +1112,159 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F25" s="3">
         <v>4</v>
@@ -1288,19 +1272,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -1308,19 +1292,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -1328,19 +1312,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1348,19 +1332,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -1368,19 +1352,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -1388,19 +1372,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1408,19 +1392,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1428,19 +1412,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -1448,19 +1432,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -1468,39 +1452,39 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -1508,19 +1492,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -1528,19 +1512,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1548,19 +1532,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -1568,19 +1552,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -1589,6 +1573,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PCB/Project Outputs for SCX10/SCX10.xlsx
+++ b/PCB/Project Outputs for SCX10/SCX10.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06517E14-1A41-40B5-B0FE-2B17CF6F00B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\hardware\scx10\PCB\Project Outputs for SCX10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57245316-470A-4F87-8A72-117CB72892DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{795F3F1C-9A31-4FE4-B85D-5A63C158868D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A01E1E27-6598-4B58-BCAC-E9164D119FE6}"/>
   </bookViews>
   <sheets>
     <sheet name="SCX10" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t>Comment</t>
   </si>
@@ -64,7 +69,7 @@
     <t>Capacitor</t>
   </si>
   <si>
-    <t>C1, C2, C7, C9, C14, C16, C19, C21, C22, C23, C24, C27</t>
+    <t>C1, C2, C7, C9, C16, C19, C21, C22, C23, C24, C27</t>
   </si>
   <si>
     <t>C0603</t>
@@ -79,22 +84,19 @@
     <t>C3, C4</t>
   </si>
   <si>
+    <t>6-0805_M</t>
+  </si>
+  <si>
     <t>10uF</t>
   </si>
   <si>
-    <t>C5, C8, C15, C18</t>
+    <t>C5, C6, C8, C15, C18</t>
   </si>
   <si>
     <t>22uF</t>
   </si>
   <si>
-    <t>C10, C11, C12, C17, C20</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>C13</t>
+    <t>C10, C17, C20</t>
   </si>
   <si>
     <t>30pF</t>
@@ -103,16 +105,31 @@
     <t>C25, C26</t>
   </si>
   <si>
-    <t>5.5uH</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L0420</t>
+    <t>3.6V</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>D Schottky</t>
+  </si>
+  <si>
+    <t>SMAJ5.0CA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D3, D4, D5</t>
+  </si>
+  <si>
+    <t>DO-214AC</t>
   </si>
   <si>
     <t>F_LED</t>
@@ -184,22 +201,19 @@
     <t>NPN</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Q3, Q4, Q5, Q6</t>
   </si>
   <si>
     <t>SOT23-3</t>
   </si>
   <si>
-    <t>0R</t>
+    <t>0R/NC</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R2</t>
   </si>
   <si>
     <t>R0603</t>
@@ -208,13 +222,7 @@
     <t>Res2</t>
   </si>
   <si>
-    <t>0R/NC</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>2K</t>
+    <t>240R</t>
   </si>
   <si>
     <t>R3, R4, R5, R6</t>
@@ -229,7 +237,7 @@
     <t>4.7K</t>
   </si>
   <si>
-    <t>R13, R14, R15, R26</t>
+    <t>R13, R14, R15, R26, R27</t>
   </si>
   <si>
     <t>1K</t>
@@ -244,42 +252,6 @@
     <t>R22, R23, R24, R25</t>
   </si>
   <si>
-    <t>20R</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>40.2K</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>75K</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>7.5K</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
     <t>SW-PB</t>
   </si>
   <si>
@@ -319,31 +291,22 @@
     <t>INF-BTN79XXX-PG-TO263-7-1-8</t>
   </si>
   <si>
-    <t>MP2315</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>TSOT23-8</t>
+    <t>AMS1117-5V</t>
+  </si>
+  <si>
+    <t>U4, U6</t>
+  </si>
+  <si>
+    <t>SOT-89</t>
+  </si>
+  <si>
+    <t>AMS1117</t>
   </si>
   <si>
     <t>AMS1117-3.3V</t>
   </si>
   <si>
     <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-89</t>
-  </si>
-  <si>
-    <t>AMS1117</t>
-  </si>
-  <si>
-    <t>AMS1117-5V</t>
-  </si>
-  <si>
-    <t>U6</t>
   </si>
   <si>
     <t>STM32F103C8T6</t>
@@ -760,14 +723,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A9D2E0-C7D7-4BBA-97FB-AAA6ECB8BBF4}">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903B3C4B-B967-42D4-A9A4-FD79824B6F90}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="12.5" customWidth="1"/>
+    <col min="1" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -827,7 +794,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -841,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -852,13 +819,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -867,18 +834,18 @@
         <v>14</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -887,18 +854,18 @@
         <v>14</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -907,24 +874,24 @@
         <v>14</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -932,39 +899,39 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -972,19 +939,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -992,19 +959,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1012,19 +979,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1032,19 +999,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -1052,19 +1019,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1075,16 +1042,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -1092,19 +1059,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1112,19 +1079,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
@@ -1132,19 +1099,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1152,139 +1119,139 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -1292,19 +1259,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -1312,59 +1279,59 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -1372,19 +1339,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1392,181 +1359,21 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="3">
         <v>1</v>
       </c>
     </row>
